--- a/data/georgia_census/shida-qartli/kaspi/age_dependency.xlsx
+++ b/data/georgia_census/shida-qartli/kaspi/age_dependency.xlsx
@@ -1007,13 +1007,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{421E6A25-66A6-4F11-BDCD-3139D6B2BBF9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{695F84E9-16EB-4DEC-A10D-9CC0E0CB4707}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86D47092-D0D0-4E8F-8F78-C86A9174AFB8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{196FF632-6DBA-4F42-9D17-7A8333B9CAF6}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33A7B333-4873-4E21-AE00-30A1F7D7BB9D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{457134B0-680C-482C-A1F6-96E9F1ECF7BA}"/>
 </file>